--- a/excel/BOT.xlsx
+++ b/excel/BOT.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26008"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_50E99484B4C4DC02F10309F9DA1CB4E5D39E6057" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2ED03345-D906-4BDF-A0F1-E043580D36E0}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26207"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylanvicharra/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33FD9FB7-56CC-4BD2-8DBD-4B8A913AAB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" tabRatio="500" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BASE" sheetId="1" r:id="rId1"/>
-    <sheet name="Compras" sheetId="2" r:id="rId2"/>
+    <sheet name="Information" sheetId="3" r:id="rId1"/>
+    <sheet name="BASE" sheetId="1" r:id="rId2"/>
+    <sheet name="Compras" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Lista_Modelos">Modelos[Model_list]</definedName>
@@ -95,7 +101,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="305">
+  <si>
+    <t>Driver</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Apellido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esteban </t>
+  </si>
+  <si>
+    <t>Iturrieta</t>
+  </si>
   <si>
     <t>Users_list</t>
   </si>
@@ -899,6 +920,18 @@
   </si>
   <si>
     <t>IPHONE XR 64GB YELLOW</t>
+  </si>
+  <si>
+    <t>IPHONE 14 PLUS 256GB PURPLE</t>
+  </si>
+  <si>
+    <t>IPHONE 14 512GB RED</t>
+  </si>
+  <si>
+    <t>IPHONE 14 PRO 128GB GOLD</t>
+  </si>
+  <si>
+    <t>IPHONE 14 PRO MAX 256GB SILVER</t>
   </si>
   <si>
     <t>FECHA</t>
@@ -989,7 +1022,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1055,14 +1088,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF2D2520"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -1080,8 +1113,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1112,8 +1152,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF27E30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1191,12 +1237,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1240,6 +1327,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1324,6 +1418,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFF27E30"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1337,8 +1434,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Modelos" displayName="Modelos" ref="D2:D183" totalsRowShown="0">
-  <autoFilter ref="D2:D183" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Modelos" displayName="Modelos" ref="D2:D188" totalsRowShown="0">
+  <autoFilter ref="D2:D188" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="IPHONE 12 PRO 128GB SILVER"/>
+        <filter val="IPHONE 12 PRO 256GB SILVER"/>
+        <filter val="IPHONE 12 PRO 512GB SILVER"/>
+        <filter val="IPHONE 12 PRO MAX 128GB SILVER"/>
+        <filter val="IPHONE 12 PRO MAX 256GB SILVER"/>
+        <filter val="IPHONE 12 PRO MAX 512GB SILVER"/>
+        <filter val="IPHONE 13 128GB STARLIGHT"/>
+        <filter val="IPHONE 13 256GB STARLIGHT"/>
+        <filter val="IPHONE 13 512GB STARLIGHT"/>
+        <filter val="IPHONE 13 MINI 128GB STARLIGHT"/>
+        <filter val="IPHONE 13 MINI 256GB STARLIGHT"/>
+        <filter val="IPHONE 13 MINI 512GB STARLIGHT"/>
+        <filter val="IPHONE 13 PRO 128GB SIERRA BLUE"/>
+        <filter val="IPHONE 13 PRO 128GB SILVER"/>
+        <filter val="IPHONE 13 PRO 1TB SIERRA BLUE"/>
+        <filter val="IPHONE 13 PRO 1TB SILVER"/>
+        <filter val="IPHONE 13 PRO 256GB SIERRA BLUE"/>
+        <filter val="IPHONE 13 PRO 256GB SILVER"/>
+        <filter val="IPHONE 13 PRO 512GB SIERRA BLUE"/>
+        <filter val="IPHONE 13 PRO 512GB SILVER"/>
+        <filter val="IPHONE 13 PRO MAX 128GB SIERRA BLUE"/>
+        <filter val="IPHONE 13 PRO MAX 128GB SILVER"/>
+        <filter val="IPHONE 13 PRO MAX 1TB SIERRA BLUE"/>
+        <filter val="IPHONE 13 PRO MAX 1TB SILVER"/>
+        <filter val="IPHONE 13 PRO MAX 256GB SIERRA BLUE"/>
+        <filter val="IPHONE 13 PRO MAX 256GB SILVER"/>
+        <filter val="IPHONE 13 PRO MAX 512GB SIERRA BLUE"/>
+        <filter val="IPHONE 13 PRO MAX 512GB SILVER"/>
+        <filter val="IPHONE SE 128GB BLACK"/>
+        <filter val="IPHONE SE 128GB MIDNIGHT"/>
+        <filter val="IPHONE SE 128GB RED"/>
+        <filter val="IPHONE SE 128GB STARLIGHT"/>
+        <filter val="IPHONE SE 128GB WHITE"/>
+        <filter val="IPHONE SE 256GB BLACK"/>
+        <filter val="IPHONE SE 256GB MIDNIGHT"/>
+        <filter val="IPHONE SE 256GB RED"/>
+        <filter val="IPHONE SE 256GB STARLIGHT"/>
+        <filter val="IPHONE SE 256GB WHITE"/>
+        <filter val="IPHONE SE 64GB BLACK"/>
+        <filter val="IPHONE SE 64GB MIDNIGHT"/>
+        <filter val="IPHONE SE 64GB RED"/>
+        <filter val="IPHONE SE 64GB STARLIGHT"/>
+        <filter val="IPHONE SE 64GB WHITE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Model_list"/>
   </tableColumns>
@@ -1408,7 +1553,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1696,1243 +1841,1307 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D92B385-D9DF-438A-8412-42600143C56E}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H183"/>
+  <dimension ref="B2:H187"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D179" sqref="D179"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="35.28515625" customWidth="1"/>
-    <col min="4" max="4" width="63.5703125" customWidth="1"/>
+    <col min="4" max="4" width="63.42578125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="8" max="8" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="15.95" hidden="1">
       <c r="B3" s="5"/>
       <c r="D3" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15.95" hidden="1">
       <c r="B4" s="9" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15.95" hidden="1">
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="15.95" hidden="1">
       <c r="B6" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H6" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="15.95" hidden="1">
+      <c r="B7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="15.95" hidden="1">
+      <c r="B8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="15.95" hidden="1">
+      <c r="B9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="15.95" hidden="1">
+      <c r="B10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="15.95" hidden="1">
+      <c r="B11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15.95" hidden="1">
+      <c r="B12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15.95" hidden="1">
+      <c r="B13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="15.95" hidden="1">
+      <c r="B14" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="15.95" hidden="1">
+      <c r="B15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="15.95" hidden="1">
+      <c r="B16" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="15.95" hidden="1">
+      <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="8" t="s">
+      <c r="D17" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="15.95" hidden="1">
+      <c r="B18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="15.95" hidden="1">
+      <c r="B19" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="15.95" hidden="1">
+      <c r="B20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="15.95" hidden="1">
+      <c r="B21" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="15.95" hidden="1">
+      <c r="B22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="15.95" hidden="1">
+      <c r="B23" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="15.95" hidden="1">
+      <c r="B24" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="15.95" hidden="1">
+      <c r="B25" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="15.95" hidden="1">
+      <c r="B26" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="15.95" hidden="1">
+      <c r="B27" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="15.95" hidden="1">
+      <c r="B28" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="15.95" hidden="1">
+      <c r="B29" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="15.95" hidden="1">
+      <c r="B30" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="15.95" hidden="1">
+      <c r="B31" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="15.95" hidden="1">
+      <c r="B32" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="15.95" hidden="1">
+      <c r="B33" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="15.95" hidden="1">
+      <c r="B34" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="15.95" hidden="1">
+      <c r="B35" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="15.95" hidden="1">
+      <c r="B36" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="15.95" hidden="1">
+      <c r="B37" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="15.95" hidden="1">
+      <c r="B38" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="15.95" hidden="1">
+      <c r="B39" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="15.95" hidden="1">
+      <c r="B40" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="15.95" hidden="1">
+      <c r="B41" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="15.95" hidden="1">
+      <c r="B42" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="15.95" hidden="1">
+      <c r="B43" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="15.95" hidden="1">
+      <c r="B44" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="15.95" hidden="1">
+      <c r="B45" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="15.95" hidden="1">
+      <c r="B46" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="15.95" hidden="1">
+      <c r="B47" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="15.95" hidden="1">
+      <c r="B48" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="15.95" hidden="1">
+      <c r="B49" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="15.95" hidden="1">
+      <c r="B50" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="15.95" hidden="1">
+      <c r="B51" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="15.95" hidden="1">
+      <c r="B52" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="15.95" hidden="1">
+      <c r="B53" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" ht="15.95" hidden="1">
+      <c r="B54" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="15.95" hidden="1">
+      <c r="B55" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" ht="15.95" hidden="1">
+      <c r="B56" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="15.95" hidden="1">
+      <c r="B57" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" ht="15.95" hidden="1">
+      <c r="B58" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" ht="15.95" hidden="1">
+      <c r="B59" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="16" t="s">
+      <c r="D59" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" ht="15.95">
+      <c r="B60" s="15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="16" t="s">
+      <c r="D60" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" ht="15.95" hidden="1">
+      <c r="B61" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="16" t="s">
+      <c r="D61" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" ht="15" hidden="1" customHeight="1">
+      <c r="B62" s="15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="B16" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="D62" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" ht="17.25" hidden="1" customHeight="1">
+      <c r="B63" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="14" t="s">
+      <c r="D63" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" ht="15.95">
+      <c r="B64" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="6" t="s">
+      <c r="D64" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" ht="17.25" hidden="1" customHeight="1">
+      <c r="B65" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" ht="15.95" hidden="1">
+      <c r="B66" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="D66" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" ht="17.25" hidden="1" customHeight="1">
+      <c r="B67" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="D67" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" ht="15.95">
+      <c r="B68" s="9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="6" t="s">
+      <c r="D68" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" ht="15" hidden="1" customHeight="1">
+      <c r="B69" s="14" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="B46" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="B51" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="B52" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="B54" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4">
-      <c r="B55" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="B56" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4">
-      <c r="B57" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4">
-      <c r="B58" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4">
-      <c r="B59" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4">
-      <c r="B60" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="B61" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" ht="15" customHeight="1">
-      <c r="B62" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" ht="17.25" customHeight="1">
-      <c r="B63" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4">
-      <c r="B64" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" ht="17.25" customHeight="1">
-      <c r="B65" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4">
-      <c r="B66" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" ht="17.25" customHeight="1">
-      <c r="B67" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4">
-      <c r="B68" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" ht="15" customHeight="1">
-      <c r="B69" s="14" t="s">
-        <v>52</v>
-      </c>
       <c r="D69" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" ht="15.95" hidden="1">
       <c r="B70" s="15" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" ht="17.25" customHeight="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" ht="17.25" hidden="1" customHeight="1">
       <c r="B71" s="14" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" ht="15.95">
       <c r="B72" s="9" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D72" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" ht="15" hidden="1" customHeight="1">
+      <c r="B73" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" ht="15.95" hidden="1">
+      <c r="B74" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" ht="15.95" hidden="1">
+      <c r="B75" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" ht="15.95">
+      <c r="B76" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" ht="15.95" hidden="1">
+      <c r="B77" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" ht="15.95" hidden="1">
+      <c r="B78" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" ht="15.95" hidden="1">
+      <c r="B79" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" ht="15.95">
+      <c r="B80" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" ht="15.95" hidden="1">
+      <c r="B81" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" ht="15.95" hidden="1">
+      <c r="B82" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" ht="15.95" hidden="1">
+      <c r="B83" s="5" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="73" spans="2:4" ht="15" customHeight="1">
-      <c r="B73" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4">
-      <c r="B74" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4">
-      <c r="B75" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4">
-      <c r="B76" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4">
-      <c r="B77" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4">
-      <c r="B78" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4">
-      <c r="B79" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4">
-      <c r="B80" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4">
-      <c r="B81" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4">
-      <c r="B82" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4">
-      <c r="B83" s="5" t="s">
-        <v>138</v>
-      </c>
       <c r="D83" s="17" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" ht="15.95" hidden="1">
       <c r="B84" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" ht="15.95" hidden="1">
       <c r="B85" s="19" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" ht="15.95">
       <c r="B86" s="20" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" ht="15.95" hidden="1">
       <c r="B87" s="21" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" ht="15.95" hidden="1">
       <c r="D88" s="17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" ht="15.95" hidden="1">
       <c r="D89" s="17" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" ht="15.95" hidden="1">
       <c r="D90" s="17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" ht="15.95" hidden="1">
       <c r="D91" s="17" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" ht="15.95">
       <c r="D92" s="17" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" ht="15.95" hidden="1">
       <c r="D93" s="17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" ht="15.95" hidden="1">
       <c r="D94" s="17" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" ht="15.95" hidden="1">
       <c r="D95" s="17" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" ht="15.95" hidden="1">
       <c r="D96" s="17" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="97" spans="4:4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4" ht="15.95" hidden="1">
       <c r="D97" s="17" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="98" spans="4:4">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4" ht="15.95">
       <c r="D98" s="17" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="99" spans="4:4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4" ht="15.95" hidden="1">
       <c r="D99" s="17" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="100" spans="4:4">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4" ht="15.95" hidden="1">
       <c r="D100" s="17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="101" spans="4:4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4" ht="15.95" hidden="1">
       <c r="D101" s="17" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="102" spans="4:4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4" ht="15.95" hidden="1">
       <c r="D102" s="17" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="103" spans="4:4">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="103" spans="4:4" ht="15.95" hidden="1">
       <c r="D103" s="17" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="104" spans="4:4">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4" ht="15.95">
       <c r="D104" s="17" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="105" spans="4:4">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4" ht="15.95" hidden="1">
       <c r="D105" s="17" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="106" spans="4:4">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4" ht="15.95" hidden="1">
       <c r="D106" s="17" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="107" spans="4:4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="107" spans="4:4" ht="15.95" hidden="1">
       <c r="D107" s="17" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="108" spans="4:4">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="108" spans="4:4" ht="15.95" hidden="1">
       <c r="D108" s="17" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="109" spans="4:4">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="109" spans="4:4" ht="15.95" hidden="1">
       <c r="D109" s="17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="110" spans="4:4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="110" spans="4:4" ht="15.95">
       <c r="D110" s="17" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="111" spans="4:4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="111" spans="4:4" ht="15.95" hidden="1">
       <c r="D111" s="17" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="112" spans="4:4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="112" spans="4:4" ht="15.95" hidden="1">
       <c r="D112" s="17" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="113" spans="4:4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4" ht="15.95" hidden="1">
       <c r="D113" s="17" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="114" spans="4:4">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4" ht="15.95" hidden="1">
       <c r="D114" s="17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="115" spans="4:4">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4" ht="15.95" hidden="1">
       <c r="D115" s="17" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="116" spans="4:4">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4" ht="15.95">
       <c r="D116" s="17" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="117" spans="4:4">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="117" spans="4:4" ht="15.95" hidden="1">
       <c r="D117" s="17" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="118" spans="4:4">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="118" spans="4:4" ht="15.95" hidden="1">
       <c r="D118" s="17" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="119" spans="4:4">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4" ht="15.95" hidden="1">
       <c r="D119" s="17" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="120" spans="4:4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4" ht="15.95">
       <c r="D120" s="17" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="121" spans="4:4">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="121" spans="4:4" ht="15.95">
       <c r="D121" s="17" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="122" spans="4:4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="122" spans="4:4" ht="15.95" hidden="1">
       <c r="D122" s="17" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="123" spans="4:4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="123" spans="4:4" ht="15.95" hidden="1">
       <c r="D123" s="17" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="124" spans="4:4">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="124" spans="4:4" ht="15.95" hidden="1">
       <c r="D124" s="17" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="125" spans="4:4">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="125" spans="4:4" ht="15.95">
       <c r="D125" s="17" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="126" spans="4:4">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="126" spans="4:4" ht="15.95">
       <c r="D126" s="17" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="127" spans="4:4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="127" spans="4:4" ht="15.95" hidden="1">
       <c r="D127" s="17" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="128" spans="4:4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="128" spans="4:4" ht="15.95" hidden="1">
       <c r="D128" s="17" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="129" spans="4:4">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="129" spans="4:4" ht="15.95" hidden="1">
       <c r="D129" s="17" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="130" spans="4:4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="130" spans="4:4" ht="15.95">
       <c r="D130" s="17" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="131" spans="4:4">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="131" spans="4:4" ht="15.95">
       <c r="D131" s="17" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="132" spans="4:4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="132" spans="4:4" ht="15.95" hidden="1">
       <c r="D132" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="133" spans="4:4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="133" spans="4:4" ht="15.95" hidden="1">
       <c r="D133" s="17" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="134" spans="4:4">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="134" spans="4:4" ht="15.95" hidden="1">
       <c r="D134" s="17" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="135" spans="4:4">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="135" spans="4:4" ht="15.95">
       <c r="D135" s="17" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="136" spans="4:4">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="136" spans="4:4" ht="15.95">
       <c r="D136" s="17" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="137" spans="4:4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="137" spans="4:4" ht="15.95" hidden="1">
       <c r="D137" s="17" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="138" spans="4:4">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="138" spans="4:4" ht="15.95" hidden="1">
       <c r="D138" s="17" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="139" spans="4:4">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="139" spans="4:4" ht="15.95" hidden="1">
       <c r="D139" s="17" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="140" spans="4:4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="140" spans="4:4" ht="15.95">
       <c r="D140" s="17" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="141" spans="4:4">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="141" spans="4:4" ht="15.95">
       <c r="D141" s="17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="142" spans="4:4">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="142" spans="4:4" ht="15.95" hidden="1">
       <c r="D142" s="17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="143" spans="4:4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="143" spans="4:4" ht="15.95" hidden="1">
       <c r="D143" s="17" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="144" spans="4:4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="144" spans="4:4" ht="15.95" hidden="1">
       <c r="D144" s="17" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="145" spans="4:4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="145" spans="4:4" ht="15.95">
       <c r="D145" s="17" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="146" spans="4:4">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="146" spans="4:4" ht="15.95">
       <c r="D146" s="17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="147" spans="4:4">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="147" spans="4:4" ht="15.95" hidden="1">
       <c r="D147" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="148" spans="4:4">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="148" spans="4:4" ht="15.95" hidden="1">
       <c r="D148" s="17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="149" spans="4:4">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="149" spans="4:4" ht="15.95" hidden="1">
       <c r="D149" s="17" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="150" spans="4:4">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="150" spans="4:4" ht="15.95">
       <c r="D150" s="17" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="151" spans="4:4">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="151" spans="4:4" ht="15.95">
       <c r="D151" s="17" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="152" spans="4:4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="152" spans="4:4" ht="15.95" hidden="1">
       <c r="D152" s="17" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="153" spans="4:4">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="153" spans="4:4" ht="15.95" hidden="1">
       <c r="D153" s="17" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="154" spans="4:4">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="154" spans="4:4" ht="15.95" hidden="1">
       <c r="D154" s="17" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="155" spans="4:4">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="155" spans="4:4" ht="15.95">
       <c r="D155" s="17" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="156" spans="4:4">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="156" spans="4:4" ht="15.95">
       <c r="D156" s="17" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="157" spans="4:4">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="157" spans="4:4" ht="15.95">
       <c r="D157" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="158" spans="4:4">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="158" spans="4:4" ht="15.95">
       <c r="D158" s="17" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="159" spans="4:4">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="159" spans="4:4" ht="15.95">
       <c r="D159" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="160" spans="4:4">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="160" spans="4:4" ht="15.95">
       <c r="D160" s="17" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="161" spans="4:4">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="161" spans="4:4" ht="15.95">
       <c r="D161" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="162" spans="4:4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="162" spans="4:4" ht="15.95">
       <c r="D162" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="163" spans="4:4">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="163" spans="4:4" ht="15.95">
       <c r="D163" s="17" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="164" spans="4:4">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="164" spans="4:4" ht="15.95">
       <c r="D164" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="165" spans="4:4">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="165" spans="4:4" ht="15.95">
       <c r="D165" s="17" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="166" spans="4:4">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="166" spans="4:4" ht="15.95">
       <c r="D166" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="167" spans="4:4">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="167" spans="4:4" ht="15.95">
       <c r="D167" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="168" spans="4:4">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="168" spans="4:4" ht="15.95">
       <c r="D168" s="17" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="169" spans="4:4">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="169" spans="4:4" ht="15.95">
       <c r="D169" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="170" spans="4:4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="170" spans="4:4" ht="15.95">
       <c r="D170" s="17" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="171" spans="4:4">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="171" spans="4:4" ht="15.95">
       <c r="D171" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="172" spans="4:4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="172" spans="4:4" ht="15.95" hidden="1">
       <c r="D172" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="173" spans="4:4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="173" spans="4:4" ht="15.95" hidden="1">
       <c r="D173" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="174" spans="4:4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="174" spans="4:4" ht="15.95" hidden="1">
       <c r="D174" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="175" spans="4:4">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="175" spans="4:4" ht="15.95" hidden="1">
       <c r="D175" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="176" spans="4:4">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="176" spans="4:4" ht="15.95" hidden="1">
       <c r="D176" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="177" spans="4:4">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="177" spans="4:4" ht="15.95" hidden="1">
       <c r="D177" s="6" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="178" spans="4:4">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="178" spans="4:4" ht="15.95" hidden="1">
       <c r="D178" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="179" spans="4:4">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="179" spans="4:4" ht="15.95" hidden="1">
       <c r="D179" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="180" spans="4:4">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="180" spans="4:4" ht="15.95" hidden="1">
       <c r="D180" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="181" spans="4:4">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="181" spans="4:4" ht="15.95" hidden="1">
       <c r="D181" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="182" spans="4:4">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="182" spans="4:4" ht="15.95" hidden="1">
       <c r="D182" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="183" spans="4:4">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="183" spans="4:4" ht="15.95" hidden="1">
       <c r="D183" s="6" t="s">
-        <v>267</v>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="184" spans="4:4">
+      <c r="D184" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="185" spans="4:4">
+      <c r="D185" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="186" spans="4:4">
+      <c r="D186" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="187" spans="4:4">
+      <c r="D187" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -2966,24 +3175,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScale="110" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="34.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="35.42578125" customWidth="1"/>
     <col min="5" max="5" width="21.28515625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="33.140625" style="24" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" style="23" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="23" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" style="23" customWidth="1"/>
     <col min="10" max="10" width="17.85546875" customWidth="1"/>
     <col min="11" max="11" width="22.7109375" customWidth="1"/>
@@ -2994,185 +3203,340 @@
     <col min="16" max="16" width="29.28515625" customWidth="1"/>
     <col min="17" max="17" width="28.85546875" customWidth="1"/>
     <col min="18" max="19" width="29.140625" customWidth="1"/>
-    <col min="20" max="21" width="28.5703125" customWidth="1"/>
+    <col min="20" max="21" width="28.42578125" customWidth="1"/>
     <col min="22" max="22" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="B1" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="C1" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="D1" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="E1" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F1" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="J1" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="K1" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="L1" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="M1" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="N1" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="O1" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="P1" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="Q1" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="R1" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="S1" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="T1" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="U1" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="V1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="15">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="B2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E2" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="I2" s="23">
         <v>920</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="B3" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E3" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="J3" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="K3" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="B4" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E4" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="B5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="L4" t="s">
+      <c r="G5" s="26"/>
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="B6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="B7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="B8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" t="s">
+        <v>299</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="B9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="M4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="15">
-      <c r="G5" s="26"/>
-    </row>
-    <row r="6" spans="1:22" ht="15">
-      <c r="E6" s="22"/>
+      <c r="D9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9" t="s">
+        <v>299</v>
+      </c>
+      <c r="F9">
+        <v>14</v>
+      </c>
+      <c r="L9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="B10" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" t="s">
+        <v>299</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="B11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" t="s">
+        <v>299</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="B12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" t="s">
+        <v>299</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="L12" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -3188,7 +3552,7 @@
       <formula1>Lista_Usuarios</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:V1004" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L12:V1004 M11:V11 L1:V10" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>Lista_Opciones</formula1>
       <formula2>0</formula2>
     </dataValidation>
